--- a/API_TEST_FRAME/samples/data/test_demo.xlsx
+++ b/API_TEST_FRAME/samples/data/test_demo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -80,7 +80,7 @@
     <t>是</t>
   </si>
   <si>
-    <t>测试用例步骤1</t>
+    <t>step_01</t>
   </si>
   <si>
     <t>接口名称1</t>
@@ -119,9 +119,6 @@
     <t>name_02</t>
   </si>
   <si>
-    <t>测试用例步骤2</t>
-  </si>
-  <si>
     <t>接口名称2</t>
   </si>
   <si>
@@ -155,7 +152,7 @@
     <t>name_03</t>
   </si>
   <si>
-    <t>测试用例步骤3</t>
+    <t>step_02</t>
   </si>
   <si>
     <t>接口名称3</t>
@@ -191,7 +188,7 @@
     <t>name_04</t>
   </si>
   <si>
-    <t>测试用例步骤4</t>
+    <t>step_03</t>
   </si>
   <si>
     <t>接口名称4</t>
@@ -224,130 +221,118 @@
     <t>期望结果4</t>
   </si>
   <si>
+    <t>case_03</t>
+  </si>
+  <si>
+    <t>name_05</t>
+  </si>
+  <si>
+    <t>接口名称5</t>
+  </si>
+  <si>
+    <t>请求方式5</t>
+  </si>
+  <si>
+    <t>请求地址5</t>
+  </si>
+  <si>
+    <t>请求参数(get)5</t>
+  </si>
+  <si>
+    <t>提交数据(post)5</t>
+  </si>
+  <si>
+    <t>取值方式5</t>
+  </si>
+  <si>
+    <t>传值变量5</t>
+  </si>
+  <si>
+    <t>取值代码5</t>
+  </si>
+  <si>
+    <t>期望结果类型5</t>
+  </si>
+  <si>
+    <t>期望结果5</t>
+  </si>
+  <si>
+    <t>case_04</t>
+  </si>
+  <si>
+    <t>name_06</t>
+  </si>
+  <si>
+    <t>接口名称6</t>
+  </si>
+  <si>
+    <t>请求方式6</t>
+  </si>
+  <si>
+    <t>请求地址6</t>
+  </si>
+  <si>
+    <t>请求参数(get)6</t>
+  </si>
+  <si>
+    <t>提交数据(post)6</t>
+  </si>
+  <si>
+    <t>取值方式6</t>
+  </si>
+  <si>
+    <t>传值变量6</t>
+  </si>
+  <si>
+    <t>取值代码6</t>
+  </si>
+  <si>
+    <t>期望结果类型6</t>
+  </si>
+  <si>
+    <t>期望结果6</t>
+  </si>
+  <si>
     <t>case_05</t>
   </si>
   <si>
-    <t>name_05</t>
-  </si>
-  <si>
-    <t>测试用例步骤5</t>
-  </si>
-  <si>
-    <t>接口名称5</t>
-  </si>
-  <si>
-    <t>请求方式5</t>
-  </si>
-  <si>
-    <t>请求地址5</t>
-  </si>
-  <si>
-    <t>请求参数(get)5</t>
-  </si>
-  <si>
-    <t>提交数据(post)5</t>
-  </si>
-  <si>
-    <t>取值方式5</t>
-  </si>
-  <si>
-    <t>传值变量5</t>
-  </si>
-  <si>
-    <t>取值代码5</t>
-  </si>
-  <si>
-    <t>期望结果类型5</t>
-  </si>
-  <si>
-    <t>期望结果5</t>
+    <t>name_07</t>
+  </si>
+  <si>
+    <t>接口名称7</t>
+  </si>
+  <si>
+    <t>请求方式7</t>
+  </si>
+  <si>
+    <t>请求地址7</t>
+  </si>
+  <si>
+    <t>请求参数(get)7</t>
+  </si>
+  <si>
+    <t>提交数据(post)7</t>
+  </si>
+  <si>
+    <t>取值方式7</t>
+  </si>
+  <si>
+    <t>传值变量7</t>
+  </si>
+  <si>
+    <t>取值代码7</t>
+  </si>
+  <si>
+    <t>期望结果类型7</t>
+  </si>
+  <si>
+    <t>期望结果7</t>
   </si>
   <si>
     <t>case_06</t>
   </si>
   <si>
-    <t>name_06</t>
-  </si>
-  <si>
-    <t>测试用例步骤6</t>
-  </si>
-  <si>
-    <t>接口名称6</t>
-  </si>
-  <si>
-    <t>请求方式6</t>
-  </si>
-  <si>
-    <t>请求地址6</t>
-  </si>
-  <si>
-    <t>请求参数(get)6</t>
-  </si>
-  <si>
-    <t>提交数据(post)6</t>
-  </si>
-  <si>
-    <t>取值方式6</t>
-  </si>
-  <si>
-    <t>传值变量6</t>
-  </si>
-  <si>
-    <t>取值代码6</t>
-  </si>
-  <si>
-    <t>期望结果类型6</t>
-  </si>
-  <si>
-    <t>期望结果6</t>
-  </si>
-  <si>
-    <t>case_07</t>
-  </si>
-  <si>
-    <t>name_07</t>
-  </si>
-  <si>
-    <t>测试用例步骤7</t>
-  </si>
-  <si>
-    <t>接口名称7</t>
-  </si>
-  <si>
-    <t>请求方式7</t>
-  </si>
-  <si>
-    <t>请求地址7</t>
-  </si>
-  <si>
-    <t>请求参数(get)7</t>
-  </si>
-  <si>
-    <t>提交数据(post)7</t>
-  </si>
-  <si>
-    <t>取值方式7</t>
-  </si>
-  <si>
-    <t>传值变量7</t>
-  </si>
-  <si>
-    <t>取值代码7</t>
-  </si>
-  <si>
-    <t>期望结果类型7</t>
-  </si>
-  <si>
-    <t>期望结果7</t>
-  </si>
-  <si>
-    <t>case_08</t>
-  </si>
-  <si>
     <t>name_08</t>
-  </si>
-  <si>
-    <t>测试用例步骤8</t>
   </si>
   <si>
     <t>接口名称8</t>
@@ -1536,7 +1521,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1651,37 +1636,37 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:14">
@@ -1689,43 +1674,43 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:14">
@@ -1733,219 +1718,219 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
